--- a/ResultadoEleicoesDistritos/VISEU_RESENDE.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_RESENDE.xlsx
@@ -597,64 +597,64 @@
         <v>2916</v>
       </c>
       <c r="H2" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J2" t="n">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="T2" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>1828</v>
+        <v>1800</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1847</v>
+        <v>1871</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
